--- a/smart_planning/v3-classification/evaluations_appreciations.xlsx
+++ b/smart_planning/v3-classification/evaluations_appreciations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,16 @@
           <t>Label</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>feature_str</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,19 +523,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Bad</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Very Good</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Excellent</t>
@@ -553,7 +558,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Bad</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -561,21 +566,24 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Very Bad</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -585,17 +593,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Bad</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Very Good</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -620,7 +628,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -628,16 +636,19 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -652,19 +663,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Bad</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Very Good</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Excellent</t>
@@ -687,7 +698,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -695,21 +706,24 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Bad</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Very Bad</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -724,12 +738,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Bad</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -762,9 +776,12 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -786,17 +803,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -821,7 +838,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -829,21 +846,24 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Very Bad</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -858,12 +878,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Very Bad</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Bad</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -888,7 +908,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Bad</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -896,7 +916,10 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Very Bad</t>
         </is>
@@ -905,7 +928,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -920,17 +943,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Very Bad</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -963,16 +986,19 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -987,17 +1013,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Bad</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Very Good</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1022,7 +1048,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1030,16 +1056,19 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1054,7 +1083,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Very Bad</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1064,7 +1093,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Very Bad</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1097,16 +1126,19 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Bad</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1121,17 +1153,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1156,7 +1188,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1164,16 +1196,19 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1188,19 +1223,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Good</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>Excellent</t>
@@ -1223,7 +1258,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1231,16 +1266,19 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1255,17 +1293,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Very Bad</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1298,9 +1336,12 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1322,17 +1363,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Very Bad</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1365,16 +1406,19 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Bad</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1389,17 +1433,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1424,7 +1468,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1432,16 +1476,19 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1456,17 +1503,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Very Bad</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1491,7 +1538,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1499,21 +1546,24 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Very Bad</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1523,17 +1573,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Very Bad</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1558,7 +1608,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1566,16 +1616,19 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1590,64 +1643,67 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>Good</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Very Bad</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1657,22 +1713,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Good</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Very Bad</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1692,7 +1748,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1700,9 +1756,12 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1788,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Bad</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1759,7 +1818,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1767,16 +1826,19 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Bad</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Very Bad</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1791,14 +1853,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Bad</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Very Good</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Good</t>
@@ -1826,7 +1888,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1834,21 +1896,24 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Very Bad</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Very Bad</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1858,59 +1923,62 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>Good</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Very Bad</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1925,7 +1993,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1935,7 +2003,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Very Bad</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1968,9 +2036,12 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2002,42 +2073,675 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Bad</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Good</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Very Bad</t>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bad</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Bad</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Very Bad</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
